--- a/biology/Biologie cellulaire et moléculaire/Pseudopeptidoglycane/Pseudopeptidoglycane.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Pseudopeptidoglycane/Pseudopeptidoglycane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pseudopeptidoglycane, ou pseudomuréine, est un composant essentiel de la paroi cellulaire de certaines archées dont la structure physique et la fonction sont très semblables à celles du peptidoglycane des bactéries, mais dont la structure chimique est différente.
-Il s'agit d'un polysaccharide lié à des oligopeptides. Le pseudopeptidoglycane de Methanobacterium thermoautotrophicum est ainsi constitué d'une alternance de résidus de N-acétylglucosamine (GlcNAc) et d'acide N-acétyltalosaminuronique (TalNAc) liés par une liaison osidique β-1,3[1] ; le peptidoglycane bactérien contient quant à lui de l'acide N-acétylmuramique (MurNAc) à la place du TalNAc.
-Les résidus TalNAc de brins polysaccharidiques différents sont liés entre eux par des fragments oligopeptidiques Glu–Ala–Lys–Glu–Lys–Ala–Glu[2],[3]. Contrairement au peptidoglycane, il n'y a aucun acide aminé D. Ce réseau réticulé confère sa résistance mécanique à la paroi cellulaire des archées qui en sont pourvues.
+Il s'agit d'un polysaccharide lié à des oligopeptides. Le pseudopeptidoglycane de Methanobacterium thermoautotrophicum est ainsi constitué d'une alternance de résidus de N-acétylglucosamine (GlcNAc) et d'acide N-acétyltalosaminuronique (TalNAc) liés par une liaison osidique β-1,3 ; le peptidoglycane bactérien contient quant à lui de l'acide N-acétylmuramique (MurNAc) à la place du TalNAc.
+Les résidus TalNAc de brins polysaccharidiques différents sont liés entre eux par des fragments oligopeptidiques Glu–Ala–Lys–Glu–Lys–Ala–Glu,. Contrairement au peptidoglycane, il n'y a aucun acide aminé D. Ce réseau réticulé confère sa résistance mécanique à la paroi cellulaire des archées qui en sont pourvues.
 La liaison osidique β-1,3 est par ailleurs résistante à l'action des lysozymes, qui attaquent les liaisons osidiques β-1,4.
 </t>
         </is>
